--- a/05_系统测试/23级软件4班1组-陈俊西组-JungleMan项目BugList表.xlsx
+++ b/05_系统测试/23级软件4班1组-陈俊西组-JungleMan项目BugList表.xlsx
@@ -1,43 +1,567 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView windowWidth="20850" windowHeight="10480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029" iterate="1" iterateCount="100" iterateDelta="0.001"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="55">
+  <si>
+    <t>软件2304班1组-组长陈俊西-JUNGLEMAN项目组BugList表</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>Bug名称</t>
+  </si>
+  <si>
+    <t>Bug描述</t>
+  </si>
+  <si>
+    <t>解决方法</t>
+  </si>
+  <si>
+    <t>负责人</t>
+  </si>
+  <si>
+    <t>开始日期</t>
+  </si>
+  <si>
+    <t>结束日期</t>
+  </si>
+  <si>
+    <t>Bug状态</t>
+  </si>
+  <si>
+    <t>图层问题</t>
+  </si>
+  <si>
+    <t>角色会被地图场景遮住</t>
+  </si>
+  <si>
+    <t>修改地图场景各个事物的优先级</t>
+  </si>
+  <si>
+    <t>陈溢阳</t>
+  </si>
+  <si>
+    <t>2024.6.7</t>
+  </si>
+  <si>
+    <t>已解决</t>
+  </si>
+  <si>
+    <t>角色无限滑铲</t>
+  </si>
+  <si>
+    <t>连续两次滑铲后角色便会一直处于滑铲状态</t>
+  </si>
+  <si>
+    <t>暂未找到解决方法</t>
+  </si>
+  <si>
+    <t>王国傲</t>
+  </si>
+  <si>
+    <t>2024.6.14</t>
+  </si>
+  <si>
+    <t>未解决</t>
+  </si>
+  <si>
+    <t>接触敌人反弹问题</t>
+  </si>
+  <si>
+    <t>角色在接触到敌人后会因碰撞而被反弹，影响游戏体验</t>
+  </si>
+  <si>
+    <t>将物理碰撞改为通过触发器的检测来判断周围的物体</t>
+  </si>
+  <si>
+    <t>陈俊西</t>
+  </si>
+  <si>
+    <t>2024.6.19</t>
+  </si>
+  <si>
+    <t>主界面角色移动问题</t>
+  </si>
+  <si>
+    <t>在主界面角色可以被玩家操控移动，但应该是静止的</t>
+  </si>
+  <si>
+    <t>由直接调用方法改为通过事件调用方法</t>
+  </si>
+  <si>
+    <t>2024.6.25</t>
+  </si>
+  <si>
+    <t>画面不跟随角色移动</t>
+  </si>
+  <si>
+    <t>角色移动后，场景画面未跟随角色移动</t>
+  </si>
+  <si>
+    <t>摄像机跟随</t>
+  </si>
+  <si>
+    <t>吴语林</t>
+  </si>
+  <si>
+    <t>2024.6.22</t>
+  </si>
+  <si>
+    <t>新游戏角色血量重置问题</t>
+  </si>
+  <si>
+    <t>开始新的游戏，角色血量未重置，仍为上局血量</t>
+  </si>
+  <si>
+    <t>注册新游戏事件，当事件发生时，调用重置方法</t>
+  </si>
+  <si>
+    <t>2024.6.27</t>
+  </si>
+  <si>
+    <t>游戏暂停问题</t>
+  </si>
+  <si>
+    <t>打开设置面板，游戏仍在进行，未暂停</t>
+  </si>
+  <si>
+    <t>触发面板后，将timeScale改为0</t>
+  </si>
+  <si>
+    <t>2024.6.29</t>
+  </si>
+  <si>
+    <t>返回主菜单问题</t>
+  </si>
+  <si>
+    <t>在设置面板返回主菜单，需再点击设置按钮才会返回主菜单</t>
+  </si>
+  <si>
+    <t>与设置面板的场景卸载设计相关，暂未找到解决办法</t>
+  </si>
+  <si>
+    <t>2024.6.30</t>
+  </si>
+  <si>
+    <t>读取存档角色死亡问题</t>
+  </si>
+  <si>
+    <t>读取存档继续游戏时，角色仍为死亡状态</t>
+  </si>
+  <si>
+    <t>读取游戏进度改为角色活着时</t>
+  </si>
+  <si>
+    <t>2024.7.1</t>
+  </si>
+  <si>
+    <t>界面卡死</t>
+  </si>
+  <si>
+    <t>有时角色落水死亡后，不会弹出结束面板，整个界面卡死</t>
+  </si>
+  <si>
+    <t>2024.7.2</t>
+  </si>
+  <si>
+    <t>制表人：王国傲</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -45,33 +569,718 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="50">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="50">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规_Sheet1_3" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <left style="thin">
+          <color theme="4"/>
+        </left>
+        <right style="thin">
+          <color theme="4"/>
+        </right>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+        <horizontal style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.799981688894314"/>
+          <bgColor theme="4" tint="0.799981688894314"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.399975585192419"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="totalRow" dxfId="4"/>
+      <tableStyleElement type="firstColumn" dxfId="3"/>
+      <tableStyleElement type="lastColumn" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+    </tableStyle>
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="totalRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
+      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="WPS">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -85,38 +1294,38 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4874CB"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="EE822F"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="F2BA02"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="75BD42"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="30C0B4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="E54C5E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0026E5"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="7E1FAD"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="WPS">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -146,12 +1355,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -181,66 +1390,40 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="WPS">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:lumOff val="17500"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
+              <a:schemeClr val="phClr"/>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="2700000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:hueOff val="-2520000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
+              <a:schemeClr val="phClr"/>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="2700000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -254,20 +1437,38 @@
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:gradFill>
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="phClr">
+                  <a:hueOff val="-4200000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="phClr"/>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="2700000" scaled="1"/>
+          </a:gradFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="101600" dist="50800" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:schemeClr val="phClr">
+                <a:alpha val="60000"/>
+              </a:schemeClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:reflection stA="50000" endA="300" endPos="40000" dist="25400" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
@@ -320,23 +1521,349 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
+  <cols>
+    <col min="2" max="2" width="24.1090909090909" customWidth="1"/>
+    <col min="3" max="3" width="52.3272727272727" customWidth="1"/>
+    <col min="4" max="4" width="47.3181818181818" customWidth="1"/>
+    <col min="6" max="6" width="9.95454545454546" customWidth="1"/>
+    <col min="7" max="7" width="9.55454545454545" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.5" spans="1:10">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+    </row>
+    <row r="2" ht="14.75" spans="1:8">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" ht="14.75" spans="1:8">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" ht="14.75" spans="1:8">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" ht="14.75" spans="1:8">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" ht="14.75" spans="1:8">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" ht="14.75" spans="1:8">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" ht="14.75" spans="1:8">
+      <c r="A8" s="4">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" ht="14.75" spans="1:8">
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" ht="14.75" spans="1:8">
+      <c r="A10" s="4">
+        <v>8</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" ht="14.75" spans="1:8">
+      <c r="A11" s="4">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" ht="14.75" spans="1:8">
+      <c r="A12" s="4">
+        <v>10</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" spans="1:8">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="12"/>
+    </row>
+    <row r="14" ht="14.75" spans="2:2">
+      <c r="B14" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E13:H13"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>